--- a/勉強資料まとめ.xlsx
+++ b/勉強資料まとめ.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ツール" sheetId="2" r:id="rId2"/>
+    <sheet name="技術点" sheetId="4" r:id="rId3"/>
+    <sheet name="単語説明" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +38,707 @@
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Visual Studio Code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.19.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eclipse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>集成开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工具　Integrated Development Environment</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oxygen.1a Release (4.7.1a)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.8.0_151</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｊｄｋ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7-zip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16.4.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>压</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工具</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tomcat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.5.24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web Server</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Angular IDE（Integrated Development Environment）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java IDE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>软</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工具包</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11.0.31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>前后台通信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Advanced Rest Client</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sqlplus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12.2.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Oracle SQL*PLUS Oracle DB可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化工具</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9.3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基于Chrome V8引擎的javascript运行环境</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TS</t>
+  </si>
+  <si>
+    <t>Object型拷贝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>IE相关</t>
+  </si>
+  <si>
+    <t>编译过后的angular项目，直接在本地打开而不发布到web容器上的话，如果程序内使用到了localStorage，或者sessionStorage，就会报错。因为这两个对象，只有在web容器的运行环境下才有效，直接打开本地文件无效。
+如果像使其有效，需要做右边修改(经测试，win7下修改有效，win10无效)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file:///C:/Users
+↓
+file://127.0.0.1/c$/Users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>window.location.href = "http://localhost:4200";</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ts内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跳转</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sizer334.msi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>控制浏览器以指定分辨率显示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>台形式链接linux服务器</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teraterm-4.97.exe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WinSCP-5.11.3-Setup.exe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.11.3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.97.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视化窗口连接Linux服务器</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>浅拷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贝，地址拷贝 Object.assign({}, obj1);
+深拷贝，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拷贝 JSON.parse(JSON.stringfy(obj1))</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>文本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编辑器</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EmEditor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Beyond Compare 4</t>
+  </si>
+  <si>
+    <r>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对比</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenSSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加密/解密</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TortoiseSVN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>项目管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头固定，body部出滚动条</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>&lt;a href=""….</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>标签只有加了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>href才会有focus，hover效果</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BlueStepCounter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文件操作</t>
+  </si>
+  <si>
+    <t>(change)="addFileBtn.value = ''</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>使用ng2FileSelect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现文件上传时，需要在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加上左边代码，实现重复上传。否则只能传一次</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>body（背景画面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>position:fixed禁止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>滚动效果</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>modal窗口打开状</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>态下，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果元画面仍然能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>滚动，设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>position:fixed会有意想不到的效果</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码行数统计工具（ts文件也可以统计）</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -43,7 +746,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +759,22 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -73,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,13 +800,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -392,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,12 +1168,98 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -432,22 +1269,722 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D3"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="3" max="3" width="39.75" customWidth="1"/>
-    <col min="4" max="4" width="46.125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D20">
+      <formula1>"CSS,TS,HTML,JAVA,Client,Server,Linux,DB,その他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="57.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="4">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="4">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="4">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="4">
+        <v>16</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="4">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="4">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="4">
+        <v>21</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="4">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="4">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="4">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="4">
+        <v>33</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="4">
+        <v>34</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="4">
+        <v>35</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="4">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="4">
+        <v>37</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C39">
+      <formula1>"CSS,TS,HTML,JAVA,Client構築,Server構築,IE相关,文件操作,その他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="57.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -457,9 +1994,102 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/勉強資料まとめ.xlsx
+++ b/勉強資料まとめ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="単語説明" sheetId="3" r:id="rId1"/>
@@ -14,9 +14,11 @@
     <sheet name="angular cli &amp; npm" sheetId="6" r:id="rId5"/>
     <sheet name="http.service" sheetId="5" r:id="rId6"/>
     <sheet name="event 通信" sheetId="7" r:id="rId7"/>
-    <sheet name="C → S → C" sheetId="9" r:id="rId8"/>
-    <sheet name="domain.service" sheetId="10" r:id="rId9"/>
-    <sheet name="文件下载" sheetId="8" r:id="rId10"/>
+    <sheet name="C→S→C" sheetId="9" r:id="rId8"/>
+    <sheet name="跨域" sheetId="11" r:id="rId9"/>
+    <sheet name="domain.service" sheetId="10" r:id="rId10"/>
+    <sheet name="文件下载" sheetId="8" r:id="rId11"/>
+    <sheet name="directive" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">技術点!$B$2:$E$85</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="254">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -2108,23 +2110,6 @@
   </si>
   <si>
     <r>
-      <t>文件下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>载sheet</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>利用iframe</t>
     </r>
     <r>
@@ -2312,7 +2297,2850 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <r>
+      <t>文件下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sheet</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>跨域sheet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>angular</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目解决跨域问题</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>④跨域</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CorsFilter.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>web.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在前台使用反向代理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>具体思路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>通常，工程模式的代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码，后台基本都在开发者自己的pc上。前台使用localhost:4200端口，后台使用localhost:8080端口。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一般前端和后端的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编译</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>好的文件都会放在一个ip地址的服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器上。前台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问后台时，域名是一样的，就不会出现跨域问题。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发阶段，使用的是工程模式代码。发布到web容器上时，使用的生产模式代码。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在前台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用后台的8080端口的api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，javascript会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阻止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求，于是就出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了跨域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>跨域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，是指在http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，host，端口中，任意一个不同，就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>域名不同。不同域名之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>想要相互</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，javascript是不允</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跨域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>正式release之前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，也就是在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试阶段，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一般都会把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布在一个本地服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>务器上。这里以tomcat举例。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>当不同测试阶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>段（如：IT1，IT2）的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试时间重叠的时候，</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>需要在tomcat上配置多个项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>者通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路径，可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到不同的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项目。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>而配置多个项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>候，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>些配置文件（位于\conf\Catalina\localhost下）中需要指定不同的context（上下文）</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.g. wfIT1.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.g. wfIT2.xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.g.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当前浏览器访问的是http://localhost:8080/wfIT1/login.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>那么取得context的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wfIT1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在请求后台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>controller中配置的url前，加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器中当前url的context。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在程序中，原来需要请求的api就变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/wfIT1/project/update.do</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>如果当前浏览器访问的是http://localhost:8080/wfIT2/login.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>那么取得context的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wfIT2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>所以在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求后台api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理必不可少。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在程序中，原来需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求的api就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/wfIT2/project/update.do</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>但是在工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，假</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后台在本地使用tomcat配置，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器的url一般</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:4200/#/app/wf/list</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>直接使用上面的做法的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话，得到的浏览器的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，请求的url就变成了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/project/update.do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请求的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>url不是想要的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>所以，如何在工程模式和生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产模式之间互相协调，有下面两种方案。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体为：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，使用上面的做法，加上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器中的context</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>工程模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时，加上指定的后台域名前缀。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.g.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这样子一来，生产模式不受影响，工程模式时，直接访问指定域名的后台。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>但是后台的域名和前台的不一致，出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现跨域问题了。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这时，需要在后台设置Cors Filter过滤器，设置response允许跨域访问</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求后台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，判断是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>于哪种模式，在url中使用不同的前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解决</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这个问题之前，有个大前提需要明确。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>如何在不修改程序代码的前提下，解决这个问题，也就是说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>降低前台和后台的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接的耦合性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，需要在前台访问后台url的时候，加上这样的逻辑。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这样一来，既解决了工程模式和生产模式的协调问题，又解决了工程模式的跨域问题。完美。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方案1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方案2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.jb51.net/article/122301.htm</t>
+  </si>
+  <si>
+    <t>https://github.com/angular/angular-cli/blob/master/docs/documentation/stories/proxy.md</t>
+  </si>
+  <si>
+    <r>
+      <t>getContextPath()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>方法只保留生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>产</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>模式的logic</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>新建proxy.conf.js文件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置反向代理</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.g.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这是angular的代理机制，能直接解决跨域问题。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>修改package.json，增加以下代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>意思是，使用npm start命令启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动前台服务时，重新指定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>base href。具体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>使用修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过的npm start启动：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>普通ng serve启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>项目访问入口url</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:4200/#/app/wf/list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:4200/wf/client/#/app/wf/list</t>
+  </si>
+  <si>
+    <r>
+      <t>标红</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> "/wf"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>意思是，当前台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"/wf"开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>跳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:8080/wf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求后台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，得到的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器中的context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wf，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求的url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/wf/project/update.do</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>虽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>然是以http://localhost:4200/wf/project/update.do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求的，</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>但是angular会识别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到wf，自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>代理到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http://localhost:8080/wf/project/update.do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>这样一来，增加前缀的做法只有一个，使工程模式和生产模式，拼接前缀的方法变的相同。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>不用考虑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吧两种方案，思路更加清晰。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>但是，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，缺点也非常明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>显</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>缺点1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设置反向代理后，修改程序无法自动刷新浏览器</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>缺点2</t>
+  </si>
+  <si>
+    <t>缺点3</t>
+  </si>
+  <si>
+    <r>
+      <t>页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>面上引用assets中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，需要判断是何种模式，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绝对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/相</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>路径</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>手动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>刷新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器会默</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个url，如果router中配的主路由和context相同，angular自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动识别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>求后台，而不是根据路由加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>载页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>面</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>element.addEventListener("click", ()=&gt; {})
+element.onclick = () =&gt; {}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>设置监听事件
+第一种写法，即使多次赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值，event不会被覆盖，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值多少次就加了多少个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监听
+第二种写法，多次赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>值，event会被覆盖</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>autofocus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">only number </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2320,7 +5148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2369,16 +5197,75 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2388,12 +5275,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2431,7 +5312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2457,12 +5338,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8708,6 +11589,2155 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="685800"/>
+          <a:ext cx="10058400" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>package jp.co.ctc_g.eim.wf.presentation.web.filter;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import java.io.IOException;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import javax.servlet.Filter;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import javax.servlet.FilterChain;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import javax.servlet.FilterConfig;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import javax.servlet.ServletException;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import javax.servlet.ServletRequest;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import javax.servlet.ServletResponse;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import javax.servlet.http.HttpServletRequest;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>import javax.servlet.http.HttpServletResponse;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>オリジン間リソース共有 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(CORS)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>のフィルターです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>public class CorsFilter implements Filter {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	/**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	 * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エンコーディング</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>	 *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	private String encoding;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	/**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	 * init</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	 *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	 * @throws ServletException</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	 *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	 * @see javax.servlet.Filter#init(javax.servlet.FilterConfig)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	 */</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	public void init(FilterConfig config) throws ServletException {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		this.encoding = "UTF-8";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    /**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     * doFilter&lt;br&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クライアント側の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Angular</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>からのオリジン間リソース共有 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(CORS)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を実現します。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;br&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     * @param request HTTP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リクエスト</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@param response HTTP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>レスポンス</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@param chain Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チェイン</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>     *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>     * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>@exception IOException</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     * @exception ServletException</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	 * @see javax.servlet.Filter#doFilter(javax.servlet.ServletRequest, javax.servlet.ServletResponse, javax.servlet.FilterChain)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     */</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	public void doFilter(ServletRequest req, ServletResponse res, FilterChain chain)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>			throws IOException, ServletException {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		HttpServletRequest request = (HttpServletRequest) req;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		HttpServletResponse response = (HttpServletResponse) res;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		req.setCharacterEncoding(encoding);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		response.setContentType("application/json;charset=" + encoding);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		response.setHeader("Pragma", "No-cache");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		response.setHeader("Cache-Control", "no-cache");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		response.setDateHeader("Expires", 0);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		response.setHeader("Access-Control-Allow-Origin", request.getHeader("Origin"));</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		response.setHeader("Access-Control-Allow-Methods", "POST, GET, OPTIONS, DELETE");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		response.setHeader("Access-Control-Max-Age", "3600");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		response.setHeader("Access-Control-Allow-Headers", "Origin, X-Requested-With, Content-Type, Accept");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		response.setHeader("Access-Control-Allow-Credentials", "true");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		response.setHeader("Content-Type", "application/json;charset=" + encoding);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>		chain.doFilter(req, res);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	/**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     * destroy</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     *</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     * @see javax.servlet.Filter#destroy()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     */</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	public void destroy() {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="16621125"/>
+          <a:ext cx="7677150" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;filter&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;filter-name&gt;CorsFilter&lt;/filter-name&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;filter-class&gt;jp.co.ctc_g.eim.wf.presentation.web.filter.CorsFilter&lt;/filter-class&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;/filter&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;filter-mapping&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;filter-name&gt;CorsFilter&lt;/filter-name&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    &lt;url-pattern&gt;*.do&lt;/url-pattern&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  &lt;/filter-mapping&gt;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2571751"/>
+          <a:ext cx="10467975" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;?xml version='1.0' encoding='utf-8'?&gt; &lt;Context </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>path="/wfIT1" docBase="../webapps/wfIT1" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>debug="0" privileged="true" autoDeploy="false" deployOnStartup="false"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     &lt;WatchedResource&gt;WEB-INF/web.xml&lt;/WatchedResource&gt; &lt;Resource  name="jdbc/eimdb"  auth="Container" type="javax.sql.DataSource"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>       username="WFSYS_IT1" password="WFSYS_IT1" accessToUnderlyingConnectionAllowed="true" driverClassName="oracle.jdbc.driver.OracleDriver"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>        url="jdbc:oracle:thin:@10.116.15.172:1521:EIM" factory="org.apache.commons.dbcp.BasicDataSourceFactory" maxActive="100"  maxIdle="0" maxWait="-1"/&gt;  &lt;/Context&gt;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3771900"/>
+          <a:ext cx="10467975" cy="857249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;?xml version='1.0' encoding='utf-8'?&gt; &lt;Context </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>path="/wfIT2" docBase="../webapps/wfIT2" </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>debug="0" privileged="true" autoDeploy="false" deployOnStartup="false"&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>     &lt;WatchedResource&gt;WEB-INF/web.xml&lt;/WatchedResource&gt; &lt;Resource  name="jdbc/eimdb"  auth="Container" type="javax.sql.DataSource" </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>      username="EIMWFSYS" password="EIMWFSYS01" accessToUnderlyingConnectionAllowed="true" driverClassName="oracle.jdbc.driver.OracleDriver"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>       url="jdbc:oracle:thin:@10.116.15.172:1521:EIM" factory="org.apache.commons.dbcp.BasicDataSourceFactory" maxActive="100"  maxIdle="0" maxWait="-1"/&gt;  &lt;/Context&gt;</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="5153024"/>
+          <a:ext cx="3467100" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public getContextPath(): string {</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    if (!this.contextPath) {</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        let pathname: string = window.location.pathname;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        this.contextPath = "/" + pathname.split("/")[1];</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    return this.contextPath;</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4810125" y="5524500"/>
+          <a:ext cx="4705350" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>let</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> url = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"/project/update.do";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this.http.post(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this.serverConfigService.getContextPath() + url</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, body, options)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="左矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="5629275"/>
+          <a:ext cx="533400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9944100"/>
+          <a:ext cx="5486400" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public getContextPath(): string {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(environment.production</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) {    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>true:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>生产模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        if (!this.contextPath) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            let pathname: string = window.location.pathname;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>            this.contextPath = "/" + pathname.split("/")[1];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return this.contextPath;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    } else {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        return environment.baseApiURL;  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>// </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定后台域名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>http://localhost:8080/wf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="19907250"/>
+          <a:ext cx="3467100" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public getContextPath(): string {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    if (!this.contextPath) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        let pathname: string = window.location.pathname;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>        this.contextPath = "/" + pathname.split("/")[1];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    return this.contextPath;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="21955126"/>
+          <a:ext cx="4791075" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>const PROXY_CONFIG = [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    context: [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"/wf",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    target: "http://localhost:8080",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    secure: false</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>module.exports = PROXY_CONFIG;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="24526875"/>
+          <a:ext cx="10086975" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"scripts": {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    "start": "ng serve -lr --proxy-config proxy.conf.js --live-reload false --base-href /wf/client/ --deploy-url /",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>},</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -11958,7 +16988,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12338,6 +17368,1613 @@
             </a:rPr>
             <a:t>  }</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="400050"/>
+          <a:ext cx="7762875" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import { Directive, ElementRef, Renderer, Input } from "@angular/core";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>自動フォーカスディレクティブです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Directive({</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>selector: "[appAutoFocus]"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>export class AutoFocusDirective {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/** </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>自動フォーカスフラグ *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Input() public isAutoFocus: boolean = true;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コンストラクタです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>constructor(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>private el: ElementRef,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>private renderer: Renderer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) { }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>コンポーネント描画後イベントハンドラ。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public ngAfterViewInit(): void {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (this.isAutoFocus) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>setTimeout(() =&gt; {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this.renderer.invokeElementMethod(this.el.nativeElement, "focus", []);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>});</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="3933825"/>
+          <a:ext cx="7762875" cy="6019800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>import {Directive, ElementRef, HostListener, Output, EventEmitter} from "@angular/core";</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数値型のみ入力制御ディレクティブです。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Directive({</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>selector: "[appOnlyNumber]",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>host: {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"(blur)": "onBlur($event.target)"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>})</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>export class OnlyNumberDirective {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@Output() public ngModelChange = new EventEmitter();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>private regex: RegExp = new RegExp(/^[0-9]+$/g);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>private specialKeys: Array&lt;string&gt; = [ "Backspace", "Tab", "End", "Home", "ArrowLeft", "ArrowRight", "Delete"];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>private specialKeysForIE11: Array&lt;string&gt; = [ "Left", "Right", "Del"];</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>constructor(private el: ElementRef) { }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>@HostListener("keydown", ["$event"])</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public onKeyDown(event: KeyboardEvent): void {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (this.specialKeys.indexOf(event.key) &gt; -1 ||</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this.specialKeysForIE11.indexOf(event.key) &gt; -1) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>let currentVal = this.el.nativeElement.value;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>let next = currentVal.concat(event.key);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (next &amp;&amp; !String(next).match(this.regex)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>event.preventDefault();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public onBlur(input: any) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>if (isNaN(input.value)) {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>input.value = null;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>this.ngModelChange.emit(input.value);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12639,14 +19276,14 @@
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="57.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
@@ -12657,7 +19294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" s="4">
         <f>ROW()-ROW($B$2)</f>
         <v>1</v>
@@ -12669,7 +19306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4">
       <c r="B4" s="4">
         <f t="shared" ref="B4:B20" si="0">ROW()-ROW($B$2)</f>
         <v>2</v>
@@ -12677,7 +19314,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12685,7 +19322,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12693,7 +19330,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12701,7 +19338,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12709,7 +19346,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12717,7 +19354,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12725,7 +19362,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12733,7 +19370,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12741,7 +19378,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12749,7 +19386,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12757,7 +19394,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12765,7 +19402,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -12773,7 +19410,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -12781,7 +19418,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12789,7 +19426,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -12797,7 +19434,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -12813,20 +19450,81 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B44:B88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>150</v>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -12844,14 +19542,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="24.625" customWidth="1"/>
     <col min="4" max="4" width="43.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12862,7 +19560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4">
       <c r="B3" s="4">
         <f>ROW()-ROW($B$2)</f>
         <v>1</v>
@@ -12872,7 +19570,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4">
       <c r="B4" s="4">
         <f t="shared" ref="B4:B20" si="0">ROW()-ROW($B$2)</f>
         <v>2</v>
@@ -12880,7 +19578,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -12888,7 +19586,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -12896,7 +19594,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -12904,7 +19602,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -12912,7 +19610,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -12920,7 +19618,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -12928,7 +19626,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -12936,7 +19634,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -12944,7 +19642,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -12952,7 +19650,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:4">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -12960,7 +19658,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -12968,7 +19666,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -12976,7 +19674,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -12984,7 +19682,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -12992,7 +19690,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13000,7 +19698,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -13018,11 +19716,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
@@ -13031,7 +19729,7 @@
     <col min="6" max="6" width="57.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13048,7 +19746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:6">
       <c r="B3" s="4">
         <f>ROW()-ROW($B$2)</f>
         <v>1</v>
@@ -13066,7 +19764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:6">
       <c r="B4" s="4">
         <f t="shared" ref="B4:B20" si="0">ROW()-ROW($B$2)</f>
         <v>2</v>
@@ -13084,7 +19782,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6">
       <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13102,7 +19800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13120,7 +19818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13138,7 +19836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13156,7 +19854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13174,7 +19872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:6">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13192,7 +19890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:6">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13208,7 +19906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13226,7 +19924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:6">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13244,7 +19942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:6">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -13260,7 +19958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:6">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -13276,7 +19974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:6">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -13292,7 +19990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -13308,7 +20006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13324,7 +20022,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13334,7 +20032,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -13359,11 +20057,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
@@ -13371,7 +20069,7 @@
     <col min="5" max="5" width="97.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13385,7 +20083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:5" s="6" customFormat="1" ht="27">
       <c r="B3" s="4">
         <f>ROW()-ROW($B$2)</f>
         <v>1</v>
@@ -13400,7 +20098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:5" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" s="6" customFormat="1" ht="40.5">
       <c r="B4" s="4">
         <f t="shared" ref="B4:B85" si="0">ROW()-ROW($B$2)</f>
         <v>2</v>
@@ -13415,7 +20113,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" s="6" customFormat="1">
       <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13430,7 +20128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5" s="6" customFormat="1">
       <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13443,7 +20141,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" s="6" customFormat="1">
       <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13458,7 +20156,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" s="6" customFormat="1">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -13473,7 +20171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" s="6" customFormat="1">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -13488,7 +20186,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" s="6" customFormat="1" ht="54">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -13503,7 +20201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="6" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" s="6" customFormat="1" ht="81">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -13518,7 +20216,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" s="6" customFormat="1" ht="27">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -13531,7 +20229,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" s="6" customFormat="1" ht="54">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -13544,7 +20242,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" s="6" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" s="6" customFormat="1" ht="148.5">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -13557,7 +20255,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" s="6" customFormat="1">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -13572,7 +20270,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="6" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" s="6" customFormat="1" ht="94.5">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -13587,7 +20285,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="2:5" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" s="6" customFormat="1" ht="40.5">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -13602,7 +20300,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:5" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" s="6" customFormat="1" ht="27">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -13617,7 +20315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" s="6" customFormat="1" ht="54">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -13632,7 +20330,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" s="6" customFormat="1" ht="27">
       <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -13647,7 +20345,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" s="6" customFormat="1">
       <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -13662,7 +20360,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" s="6" customFormat="1" ht="40.5">
       <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -13677,7 +20375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" s="6" customFormat="1">
       <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -13692,7 +20390,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" s="6" customFormat="1">
       <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -13707,7 +20405,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:5" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" s="6" customFormat="1" ht="54">
       <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -13722,7 +20420,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" s="6" customFormat="1">
       <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -13737,7 +20435,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" s="6" customFormat="1">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -13752,7 +20450,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" s="6" customFormat="1">
       <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -13767,7 +20465,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="2:5" s="6" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" s="6" customFormat="1" ht="67.5">
       <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -13782,7 +20480,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="2:5" s="6" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" s="6" customFormat="1" ht="108">
       <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -13797,7 +20495,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="2:5" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" s="6" customFormat="1" ht="135">
       <c r="B31" s="4">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -13812,7 +20510,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="2:5" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5" s="6" customFormat="1" ht="40.5">
       <c r="B32" s="4">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -13825,7 +20523,7 @@
       </c>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="2:5" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5" s="6" customFormat="1" ht="27">
       <c r="B33" s="4">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -13840,7 +20538,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5" s="6" customFormat="1">
       <c r="B34" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -13853,7 +20551,7 @@
       </c>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="2:5" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5" s="6" customFormat="1" ht="27">
       <c r="B35" s="4">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -13868,7 +20566,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="2:5" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5" s="6" customFormat="1" ht="40.5">
       <c r="B36" s="4">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -13883,7 +20581,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="2:5" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:5" s="6" customFormat="1" ht="40.5">
       <c r="B37" s="4">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -13898,7 +20596,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="2:5" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5" s="6" customFormat="1" ht="40.5">
       <c r="B38" s="4">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -13913,7 +20611,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:5" s="6" customFormat="1" ht="40.5">
       <c r="B39" s="4">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -13928,7 +20626,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:5" s="6" customFormat="1">
       <c r="B40" s="4">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -13943,7 +20641,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="2:5" s="6" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:5" s="6" customFormat="1" ht="94.5">
       <c r="B41" s="4">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -13958,7 +20656,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:5" s="6" customFormat="1">
       <c r="B42" s="4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -13967,31 +20665,43 @@
         <v>33</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="2:5" s="6" customFormat="1">
       <c r="B43" s="4">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" s="6" customFormat="1" ht="40.5">
       <c r="B44" s="4">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="6" customFormat="1">
       <c r="B45" s="4">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -14000,7 +20710,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:5" s="6" customFormat="1">
       <c r="B46" s="4">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -14009,7 +20719,7 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:5" s="6" customFormat="1">
       <c r="B47" s="4">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -14018,7 +20728,7 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:5" s="6" customFormat="1">
       <c r="B48" s="4">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -14027,7 +20737,7 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:5" s="6" customFormat="1">
       <c r="B49" s="4">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -14036,7 +20746,7 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:5" s="6" customFormat="1">
       <c r="B50" s="4">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -14045,7 +20755,7 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:5" s="6" customFormat="1">
       <c r="B51" s="4">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -14054,7 +20764,7 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:5" s="6" customFormat="1">
       <c r="B52" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -14063,7 +20773,7 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:5" s="6" customFormat="1">
       <c r="B53" s="4">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -14072,7 +20782,7 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:5" s="6" customFormat="1">
       <c r="B54" s="4">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -14081,7 +20791,7 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:5" s="6" customFormat="1">
       <c r="B55" s="4">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -14090,7 +20800,7 @@
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:5" s="6" customFormat="1">
       <c r="B56" s="4">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -14099,7 +20809,7 @@
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:5" s="6" customFormat="1">
       <c r="B57" s="4">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -14108,7 +20818,7 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:5" s="6" customFormat="1">
       <c r="B58" s="4">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -14117,7 +20827,7 @@
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:5" s="6" customFormat="1">
       <c r="B59" s="4">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -14126,7 +20836,7 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:5" s="6" customFormat="1">
       <c r="B60" s="4">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -14135,7 +20845,7 @@
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:5" s="6" customFormat="1">
       <c r="B61" s="4">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -14144,7 +20854,7 @@
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:5" s="6" customFormat="1">
       <c r="B62" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -14153,7 +20863,7 @@
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:5" s="6" customFormat="1">
       <c r="B63" s="4">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -14162,7 +20872,7 @@
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:5" s="6" customFormat="1">
       <c r="B64" s="4">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -14171,7 +20881,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:5" s="6" customFormat="1">
       <c r="B65" s="4">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -14180,7 +20890,7 @@
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:5" s="6" customFormat="1">
       <c r="B66" s="4">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -14189,7 +20899,7 @@
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:5" s="6" customFormat="1">
       <c r="B67" s="4">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -14198,7 +20908,7 @@
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:5" s="6" customFormat="1">
       <c r="B68" s="4">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -14207,7 +20917,7 @@
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:5" s="6" customFormat="1">
       <c r="B69" s="4">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -14216,7 +20926,7 @@
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:5" s="6" customFormat="1">
       <c r="B70" s="4">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -14225,7 +20935,7 @@
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:5" s="6" customFormat="1">
       <c r="B71" s="4">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -14234,7 +20944,7 @@
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:5" s="6" customFormat="1">
       <c r="B72" s="4">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -14243,7 +20953,7 @@
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:5" s="6" customFormat="1">
       <c r="B73" s="4">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -14252,7 +20962,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:5" s="6" customFormat="1">
       <c r="B74" s="4">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -14261,7 +20971,7 @@
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:5" s="6" customFormat="1">
       <c r="B75" s="4">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -14270,7 +20980,7 @@
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:5" s="6" customFormat="1">
       <c r="B76" s="4">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -14279,7 +20989,7 @@
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:5" s="6" customFormat="1">
       <c r="B77" s="4">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -14288,7 +20998,7 @@
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:5" s="6" customFormat="1">
       <c r="B78" s="4">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -14297,7 +21007,7 @@
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:5" s="6" customFormat="1">
       <c r="B79" s="4">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -14306,7 +21016,7 @@
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:5" s="6" customFormat="1">
       <c r="B80" s="4">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -14315,7 +21025,7 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:5" s="6" customFormat="1">
       <c r="B81" s="4">
         <f t="shared" si="0"/>
         <v>79</v>
@@ -14324,7 +21034,7 @@
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:5" s="6" customFormat="1">
       <c r="B82" s="4">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -14333,7 +21043,7 @@
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:5" s="6" customFormat="1">
       <c r="B83" s="4">
         <f t="shared" si="0"/>
         <v>81</v>
@@ -14342,7 +21052,7 @@
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:5" s="6" customFormat="1">
       <c r="B84" s="4">
         <f t="shared" si="0"/>
         <v>82</v>
@@ -14351,7 +21061,7 @@
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:5" s="6" customFormat="1">
       <c r="B85" s="4">
         <f t="shared" si="0"/>
         <v>83</v>
@@ -14380,21 +21090,21 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="3" max="3" width="25.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:4" ht="24" customHeight="1">
+      <c r="B2" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -14405,115 +21115,115 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4">
       <c r="B5" s="4">
         <f>ROW()-ROW($B$4)</f>
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="4">
         <f>ROW()-ROW($B$4)</f>
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="4">
         <f t="shared" ref="B7:B19" si="0">ROW()-ROW($B$4)</f>
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -14521,7 +21231,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4">
       <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -14529,7 +21239,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4">
       <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -14537,7 +21247,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:4">
       <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -14545,7 +21255,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:4">
       <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -14553,7 +21263,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4">
       <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -14561,19 +21271,19 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="18.75">
+      <c r="B25" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
@@ -14584,43 +21294,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4">
       <c r="B28" s="4">
         <f>ROW()-ROW($B$27)</f>
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" s="4">
         <f t="shared" ref="B29:B37" si="1">ROW()-ROW($B$27)</f>
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -14628,7 +21338,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4">
       <c r="B32" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -14636,7 +21346,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4">
       <c r="B33" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -14644,7 +21354,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4">
       <c r="B34" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -14652,7 +21362,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:4">
       <c r="B35" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -14660,7 +21370,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:4">
       <c r="B36" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -14668,7 +21378,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:4">
       <c r="B37" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -14676,9 +21386,9 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -14699,7 +21409,7 @@
       <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14715,7 +21425,7 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14727,30 +21437,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="13" t="s">
-        <v>178</v>
+    <row r="25" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B25" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -14762,25 +21470,428 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B44:B88"/>
+  <dimension ref="A2:E166"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
-        <v>144</v>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>1.2</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>1.3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="C114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>2.1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B127" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="B128" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="B140" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="E149" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>231</v>
+      </c>
+      <c r="E150" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" t="s">
+        <v>230</v>
+      </c>
+      <c r="E151" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>242</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>244</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>245</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="B164" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="B166" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/勉強資料まとめ.xlsx
+++ b/勉強資料まとめ.xlsx
@@ -1,34 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="単語説明" sheetId="3" r:id="rId1"/>
-    <sheet name="一覧" sheetId="1" r:id="rId2"/>
-    <sheet name="ツール" sheetId="2" r:id="rId3"/>
-    <sheet name="技術点" sheetId="4" r:id="rId4"/>
-    <sheet name="angular cli &amp; npm" sheetId="6" r:id="rId5"/>
-    <sheet name="http.service" sheetId="5" r:id="rId6"/>
-    <sheet name="event 通信" sheetId="7" r:id="rId7"/>
-    <sheet name="C→S→C" sheetId="9" r:id="rId8"/>
-    <sheet name="跨域" sheetId="11" r:id="rId9"/>
-    <sheet name="domain.service" sheetId="10" r:id="rId10"/>
-    <sheet name="文件下载" sheetId="8" r:id="rId11"/>
-    <sheet name="directive" sheetId="12" r:id="rId12"/>
+    <sheet name="Angular →" sheetId="14" r:id="rId2"/>
+    <sheet name="一覧" sheetId="1" r:id="rId3"/>
+    <sheet name="ツール" sheetId="2" r:id="rId4"/>
+    <sheet name="技術点" sheetId="4" r:id="rId5"/>
+    <sheet name="angular cli &amp; npm" sheetId="6" r:id="rId6"/>
+    <sheet name="http.service" sheetId="5" r:id="rId7"/>
+    <sheet name="event 通信" sheetId="7" r:id="rId8"/>
+    <sheet name="C→S→C" sheetId="9" r:id="rId9"/>
+    <sheet name="跨域" sheetId="11" r:id="rId10"/>
+    <sheet name="domain.service" sheetId="10" r:id="rId11"/>
+    <sheet name="文件下载" sheetId="8" r:id="rId12"/>
+    <sheet name="directive" sheetId="12" r:id="rId13"/>
+    <sheet name="VB →" sheetId="13" r:id="rId14"/>
+    <sheet name="vb技術点" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">技術点!$B$2:$E$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">技術点!$B$2:$E$85</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="291">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -5141,6 +5144,1128 @@
   </si>
   <si>
     <t xml:space="preserve">only number </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>题</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get日期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>vs2015不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>先把相关文件拷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到新工程目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下，然后右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;add&gt;existing item，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中.vb文件就可以正常使用了</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>获取系统指定目录</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenFileDialog1.InitialDirectory = Environment.GetFolderPath(Environment.SpecialFolder.Desktop)</t>
+  </si>
+  <si>
+    <r>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释与取消注释</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：        先CTRL+K，然后CTRL+C
+取消注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>： 先CTRL+K，然后CTRL+U</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认对话框</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MessageBox.Show(CommonUtil.GetMessage("CD001"), "確認", MessageBoxButtons.YesNo, MessageBoxIcon.Question)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>禁止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输入某些字符</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Private Sub txtComment_KeyPress(sender As Object, e As KeyPressEventArgs) Handles txtComment.KeyPress
+        ' ' " &lt; &gt; %は利用不可とする
+        If Asc(e.KeyChar.ToString) = Asc("'") Or
+           Asc(e.KeyChar.ToString) = Asc("""") Or
+           Asc(e.KeyChar.ToString) = Asc("%") Then
+            e.KeyChar = Nothing
+        End If
+    End Sub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>判断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对话框点击了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>啥按</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钮</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DialogResult.Yes = ？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>MessageBox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实现通配</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用String.Format()通配字符串中的{0}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>指定form上各个控件的tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过设置tabIndex，但是画面上如果有readonly的textbox的话，设置其tabIndex为0，且tabStop为false</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过DragDrop拖动获取文件/文件夹</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dim str() As String = CType(e.Data.GetData(DataFormats.FileDrop, False), String())
+        If str.Length &gt; 1 Then
+            Exit Sub
+        Else
+            sender.Text = str(0)
+        End If</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>端</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>vb中使用正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>则</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dim reg As New Regex("\\|\/|\'|\#|\:|\*|\?|\""|\&lt;|\&gt;|\||\%|\&amp;|\\t")
+If reg.IsMatch(txtCommont.Text) Then
+    Console.WriteLine("is match")
+Else
+    Console.WriteLine("isn\'t match")
+End If</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过DragDrop拖动获取目标文件夹路径</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dim targetTreeNode As TreeNode
+Dim point As Point
+point.X = e.X
+point.Y = e.Y
+targetTreeNode = TreeView1.GetNodeAt(TreeView1.PointToClient(point))
+targetTreeNode.FullPath</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>快速生成方法注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>释</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>连续按三个'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码延迟</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Public Shared Sub Sleep(ByVal Interval As Integer)
+        Dim __time As DateTime = DateTime.Now
+        Dim __Span As Int64 = Interval * 10000   '因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是以100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>秒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>位。   
+        While (DateTime.Now.Ticks - __time.Ticks &lt; __Span)
+            Application.DoEvents()
+        End While
+    End Sub</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WinForm生命周期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">当 Windows Form </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用程序启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，会以下列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>序引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主要表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件：
+        System.Windows.Forms.Control.HandleCreated
+        System.Windows.Forms.Control.BindingContextChanged
+        System.Windows.Forms.Form.Load
+        System.Windows.Forms.Control.VisibleChanged
+        System.Windows.Forms.Form.Activated
+        System.Windows.Forms.Form.Shown
+    当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用程序关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>闭时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，会以下列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>序引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主要表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的关</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件：          
+        System.Windows.Forms.Form.Closing
+        System.Windows.Forms.Form.FormClosing
+        System.Windows.Forms.Form.Closed
+        System.Windows.Forms.Form.FormClosed
+        System.Windows.Forms.Form.Deactivate</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>使用多</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程和委托实现异步操作，并更新画面元素</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1. 定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要异步操作的方法
+  Private Sub func1(ByRef str As String)
+2. 定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>义与上面的方法同参数的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delegate委托方法，最好方法名也一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  Private Delegate Sub AsynFunc1(ByRef str As String)
+3. 声明一个全局的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">线程变量
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  private myThread As Threading.Thread
+4. 定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>义一个方法，将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>func1委托</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AsynFunc1
+  private Sub AssignDelegate（）
+    Me.invoke(New AsynFunc1(AddressOf func1), "abcd")
+    myThread.Abort()
+  End Sub
+5. 在想要触</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发异步操作的地方，实例化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myThread，并启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AssignDelegate方法
+  myThread = New Threading.Thread(AddressOf AssignDelegate)
+  myThread.Name = "StartThread"
+  myThread.Start()</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5312,7 +6437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5343,6 +6468,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18984,7 +20132,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -19026,7 +20174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19061,7 +20209,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -19450,6 +20598,439 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E166"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="B52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="B55" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="B57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="B58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>1.2</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>1.3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="C114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>2.1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B127" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="B128" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="B140" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="B141" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="E149" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="B150" t="s">
+        <v>231</v>
+      </c>
+      <c r="E150" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="B151" t="s">
+        <v>230</v>
+      </c>
+      <c r="E151" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="B153" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="B154" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="B155" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="B157" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>242</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>244</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>245</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="B164" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="B166" t="s">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B44:B88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -19478,7 +21059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B13"/>
   <sheetViews>
@@ -19503,11 +21084,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -19534,12 +21115,376 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.625" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="21">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="21">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="27">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="21">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E6" s="21">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="108.75" customHeight="1">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="21">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="21">
+        <v>43070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="21">
+        <v>43073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="21">
+        <v>43074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="81">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="21">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="81">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="21">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="81">
+      <c r="A13" s="19">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="21">
+        <v>43075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="19">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" ht="94.5">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" ht="175.5">
+      <c r="A16" s="19">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="202.5">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="19">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="19">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19712,13 +21657,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -20053,13 +21996,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -21082,7 +23023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D39"/>
   <sheetViews>
@@ -21401,7 +23342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21417,7 +23358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21433,7 +23374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B25"/>
   <sheetViews>
@@ -21466,437 +23407,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E166"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="12"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="12"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="12"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="12"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="12"/>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="12"/>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="12"/>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="12"/>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="12"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="B49" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="B50" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="B52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>219</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="B55" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="B57" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="B58" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="B63" s="12"/>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="B72" s="12" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="B73" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1.2</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="B76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>1.3</v>
-      </c>
-      <c r="B98" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="B109" s="12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>220</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="B113" t="s">
-        <v>221</v>
-      </c>
-      <c r="C113" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="C114" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="B116" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117">
-        <v>2.1</v>
-      </c>
-      <c r="B117" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B127" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="B128" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="B140" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="B141" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B143" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="E149" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="B150" t="s">
-        <v>231</v>
-      </c>
-      <c r="E150" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="B151" t="s">
-        <v>230</v>
-      </c>
-      <c r="E151" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="B154" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="B155" s="12" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="B157" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5">
-      <c r="B158" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5">
-      <c r="B160" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>242</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>244</v>
-      </c>
-      <c r="B162" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>245</v>
-      </c>
-      <c r="B163" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="B164" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="B166" t="s">
-        <v>248</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>